--- a/아이템인덱스.xlsx
+++ b/아이템인덱스.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SON\Desktop\h\설계기초\프로젝트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE133FC4-8A14-4735-98CC-A73BE817BF00}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A18410F-B344-4787-9624-846A9A87BC02}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7872" xr2:uid="{BE2B8CB8-0893-4BE2-99C5-17ACAF06130C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>방 번호</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -57,211 +57,1086 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>[1][0] = 찢어진 티켓조각(1/3)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1][1] = 연필</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1][2] = 메모장</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1][3] = 2번방 열쇠</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1][4] = 숫자가 적힌 쪽지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2][0] = 찢어진 티켓조각(2/3)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2][1] = 진료차트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2][2] = 경찰ID카드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[3][0] = 찢어진 티켓조각(3/3)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[3][1] = 사건파일(1/3)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[3][2] = 사건파일(2/3)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[3][3] = 사건파일(3/3)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[3][4] = 수갑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[3][5] = 극장 티켓</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[5][0] = 6번방 열쇠</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[6][0] = 숫자가 적힌 쪽지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[8][0] = 5번방 탈출 열쇠</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>[0][0] = 금고</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>[1][0] = 컴퓨터</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1][1] = 책상서랍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1][2] = 원서책</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1][3] = 의자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1][4] = 신문</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2][0] = 침대</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2][1] = 링거</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2][2] = 주사기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2][3] = 청진기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[3][0] = 의자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[3][1] = 책상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[4][0] = 총</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[4][1] = 상사 오브젝트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[4][2] = 사람 오브젝트 A</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[4][3] = 사람 오브젝트 B</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[4][4] = 사람 오브젝트 C</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[4][5] = 사람 오브젝트 D</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[4][6] = 사람 오브젝트 E</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[5][0] = 살인도구</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[5][1] = 피해자의 시신</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[5][2] = 컴퓨터</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[5][3] = 책상서랍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[5][4] = 원서책</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[5][5] = 의자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[5][6] = 신문</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[6][0] = 책상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">[6][1] = 전화기 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[6][2] = 전기 레버</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[8][0~9] = 오브젝트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[9][0] = 컴퓨터</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[9][1] = 책상서랍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[9][2] = 원서책</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[9][3] = 의자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[9][4] = 신문</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [1][0] = 찢어진 티켓조각(1/3)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [1][1] = 연필</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [1][2] = 메모장</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [1][3] = 2번방 열쇠</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [1][4] = 숫자가 적힌 쪽지</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [1][0] = 컴퓨터</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [1][1] = 책상서랍</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [1][2] = 의자</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [1][3] = 신문</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [2][0] = 찢어진 티켓조각(2/3)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [2][1] = 진료차트</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [2][2] = 경찰ID카드</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [3][0] = 찢어진 티켓조각(3/3)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [3][1] = 사건파일(1/3)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [3][2] = 사건파일(2/3)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [3][3] = 사건파일(3/3)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [3][4] = 수갑</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [3][5] = 극장 티켓</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [2][1] = 링거</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [2][2] = 주사기</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [2][3] = 청진기</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>42</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [4][0] = 총</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>43</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [4][1] = 상사 오브젝트</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>44</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [4][2] = 사람 오브젝트 A</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>45</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [4][3] = 사람 오브젝트 B</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>46</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [4][4] = 사람 오브젝트 C</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>47</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [4][5] = 사람 오브젝트 D</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>48</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [4][6] = 사람 오브젝트 E</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>92</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [9][0] = 컴퓨터</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [5][0] = 6번방 열쇠</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>52</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [5][0] = 살인도구</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>53</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [5][1] = 피해자의 시신</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>54</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [5][2] = 컴퓨터</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>55</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [5][3] = 책상서랍</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>56</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [5][5] = 의자</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>57</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [5][6] = 신문</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [6][0] = 숫자가 적힌 쪽지</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>62</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [6][1] = 전화기 </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">63 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[6][2] = 전기 레버</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [8][0] = 5번방 탈출 열쇠</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>82~[8][0~9] = 오브젝트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>93</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [9][2] = 원서책</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>94</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [9][3] = 의자</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>95</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [9][4] = 신문</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -269,7 +1144,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,6 +1184,22 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -323,7 +1214,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -552,6 +1443,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -561,7 +1496,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -598,22 +1533,43 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -622,28 +1578,37 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -963,8 +1928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A111D4-46AA-4772-82B6-2B59F5DBCF04}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -979,533 +1944,461 @@
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="18" t="s">
+      <c r="C1" s="26"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="19"/>
+      <c r="F1" s="26"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <v>0</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="16"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="7"/>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="21"/>
+      <c r="B4" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="17"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B5" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="16"/>
+      <c r="B5" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B6" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="16"/>
+      <c r="B6" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B7" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="16"/>
+      <c r="B7" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="13"/>
     </row>
     <row r="8" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="7"/>
-      <c r="B8" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="13"/>
+      <c r="B8" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="15"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>2</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="21"/>
+      <c r="B9" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="31"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B10" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="24"/>
+      <c r="B10" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="32"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B11" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="24"/>
+      <c r="B11" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="36"/>
     </row>
     <row r="12" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="7"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="34"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>3</v>
       </c>
-      <c r="B13" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="21"/>
+      <c r="B13" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="13"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B14" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="15" t="s">
-        <v>34</v>
-      </c>
+      <c r="B14" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="29"/>
       <c r="F14" s="24"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B15" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="15"/>
+      <c r="B15" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="12"/>
       <c r="F15" s="24"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B16" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="15"/>
+      <c r="B16" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="12"/>
       <c r="F16" s="24"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="8"/>
-      <c r="B17" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="16"/>
+      <c r="B17" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="13"/>
     </row>
     <row r="18" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="7"/>
-      <c r="B18" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13"/>
+      <c r="B18" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="15"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <v>4</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B20" s="15"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B21" s="15"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B22" s="15"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B23" s="15"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B24" s="15"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="9"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <v>5</v>
       </c>
-      <c r="B26" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="F26" s="21"/>
+      <c r="B26" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="17"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" s="17"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F27" s="24"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B28" s="15"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="15" t="s">
-        <v>44</v>
+      <c r="B28" s="12"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="29" t="s">
+        <v>39</v>
       </c>
       <c r="F28" s="24"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B29" s="15"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="15" t="s">
-        <v>45</v>
+      <c r="B29" s="12"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="29" t="s">
+        <v>40</v>
       </c>
       <c r="F29" s="24"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B30" s="15"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="15" t="s">
-        <v>46</v>
-      </c>
+      <c r="B30" s="12"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="29"/>
       <c r="F30" s="24"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B31" s="15"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="15" t="s">
-        <v>47</v>
+      <c r="B31" s="12"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="29" t="s">
+        <v>41</v>
       </c>
       <c r="F31" s="24"/>
     </row>
     <row r="32" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="7"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F32" s="13"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="F32" s="15"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <v>6</v>
       </c>
-      <c r="B33" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="F33" s="21"/>
+      <c r="B33" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="17"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="17"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B34" s="15"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="15" t="s">
-        <v>50</v>
+      <c r="B34" s="12"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="29" t="s">
+        <v>44</v>
       </c>
       <c r="F34" s="24"/>
     </row>
     <row r="35" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A35" s="7"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F35" s="13"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" s="15"/>
     </row>
     <row r="36" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A36" s="3">
         <v>7</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="21"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="15"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="12"/>
       <c r="F36" s="24"/>
     </row>
     <row r="37" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A37" s="10">
         <v>8</v>
       </c>
-      <c r="B37" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C37" s="26"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="F37" s="26"/>
+      <c r="B37" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="22"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F37" s="22"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38" s="11">
         <v>9</v>
       </c>
-      <c r="B38" s="20"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="F38" s="21"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="F38" s="17"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B39" s="15"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="F39" s="16"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="13"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B40" s="15"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F40" s="16"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F40" s="13"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B41" s="15"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="F41" s="16"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="F41" s="13"/>
     </row>
     <row r="42" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A42" s="7"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F42" s="13"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="F42" s="15"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E21:G21"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B6:D6"/>
@@ -1522,6 +2415,65 @@
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
